--- a/template_update.xlsx
+++ b/template_update.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/template_update.xlsx
+++ b/template_update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32980" yWindow="-5240" windowWidth="25360" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
-    <t>Folder</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Jira Ticket</t>
+  </si>
+  <si>
+    <t>Functional Area</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -466,69 +466,69 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/template_update.xlsx
+++ b/template_update.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -79,7 +79,7 @@
     <t>Jira Ticket</t>
   </si>
   <si>
-    <t>Functional Area</t>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -454,11 +454,12 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" customWidth="1"/>
